--- a/Chatbot/Presentation Data/Queries/Program Details.xlsx
+++ b/Chatbot/Presentation Data/Queries/Program Details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Study\Current\Minor Project\minor_project\Chatbot_Final\Queries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0134EED5-4266-4709-AEEC-4D4C5E600CC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B6BF21-D9B2-4039-AB69-371EF4F85757}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1078,9 +1078,6 @@
     <t>B Tech (Non Lateral)</t>
   </si>
   <si>
-    <t>Bachelor of Technology and Engineering, Engg., Engineering, Btech, B Tech, Bachelor of Tech</t>
-  </si>
-  <si>
     <t>Bachelors of Business Administration,BBA,Business Admin</t>
   </si>
   <si>
@@ -1108,6 +1105,9 @@
     <t>Admissions are done on the basis of rank in the Manipal Entrance Test (MET) for the respective year.
 Direct Admission - Foreign/NRI/NRI Sponsored/ PIO/OCI  Category  -                  Admissions are done on the basis of marks obtained in the qualifying examination and recommendation of “Committee for Foreign / NRI admissions”.
 For direct admission other than Foreign/NRI/NRI Sponsored/ PIO/OCI  Category  (in branches where seats are likely to remain vacant) the following candidates will be eligible- Admissions are done on the basis of marks obtained in the qualifying examination.</t>
+  </si>
+  <si>
+    <t>Bachelor of Technology and Engineering, Engg., Engineering, Btech, B Tech, Bachelor of Tech, Bachelors of Technology, Bachelors in Technology</t>
   </si>
 </sst>
 </file>
@@ -1745,8 +1745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1792,10 +1792,10 @@
         <v>29</v>
       </c>
       <c r="C2" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="51" t="s">
         <v>188</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>189</v>
       </c>
       <c r="E2" s="45" t="s">
         <v>146</v>
@@ -1804,7 +1804,7 @@
         <v>147</v>
       </c>
       <c r="G2" s="46" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="72">
@@ -1893,7 +1893,7 @@
         <v>125</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" ht="72">
@@ -1908,7 +1908,7 @@
       <c r="E8" s="35"/>
       <c r="F8" s="42"/>
       <c r="G8" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="86.4">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="F28" s="42"/>
       <c r="G28" s="49" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="35.25" customHeight="1">
@@ -2370,7 +2370,7 @@
       <c r="E34" s="30"/>
       <c r="F34" s="42"/>
       <c r="G34" s="50" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="57.6">
